--- a/src/Tests/Samples.VerifyExcelStream.verified.xlsx
+++ b/src/Tests/Samples.VerifyExcelStream.verified.xlsx
@@ -109,6 +109,15 @@
   </x:si>
   <x:si>
     <x:t>Brumm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DateTime_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DateTime_2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DateTime_3</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -547,8 +556,8 @@
       <x:c r="E2" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="F2" s="4">
-        <x:v>43023</x:v>
+      <x:c r="F2" s="4" t="s">
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G2" s="0">
         <x:v>32</x:v>
@@ -576,8 +585,8 @@
       <x:c r="E3" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="F3" s="4">
-        <x:v>42598</x:v>
+      <x:c r="F3" s="4" t="s">
+        <x:v>26</x:v>
       </x:c>
       <x:c r="G3" s="0">
         <x:v>25</x:v>
@@ -605,8 +614,8 @@
       <x:c r="E4" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="F4" s="4">
-        <x:v>42145</x:v>
+      <x:c r="F4" s="4" t="s">
+        <x:v>27</x:v>
       </x:c>
       <x:c r="G4" s="0">
         <x:v>36</x:v>
@@ -634,8 +643,8 @@
       <x:c r="E5" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="F5" s="4">
-        <x:v>43023</x:v>
+      <x:c r="F5" s="4" t="s">
+        <x:v>25</x:v>
       </x:c>
       <x:c r="G5" s="0">
         <x:v>25</x:v>
@@ -663,8 +672,8 @@
       <x:c r="E6" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="F6" s="4">
-        <x:v>42598</x:v>
+      <x:c r="F6" s="4" t="s">
+        <x:v>26</x:v>
       </x:c>
       <x:c r="G6" s="0">
         <x:v>58</x:v>
@@ -692,8 +701,8 @@
       <x:c r="E7" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="F7" s="4">
-        <x:v>42145</x:v>
+      <x:c r="F7" s="4" t="s">
+        <x:v>27</x:v>
       </x:c>
       <x:c r="G7" s="0">
         <x:v>24</x:v>
